--- a/data/trans_orig/P16A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>13314</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7092</v>
+        <v>7143</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22820</v>
+        <v>23007</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01921267658450216</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01023395672140165</v>
+        <v>0.01030793941898517</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03292995881259701</v>
+        <v>0.03319979360327802</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -765,19 +765,19 @@
         <v>40991</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30176</v>
+        <v>29651</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54342</v>
+        <v>54628</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05954966241613721</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04383863193971652</v>
+        <v>0.0430752961233961</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07894465365227826</v>
+        <v>0.07936003999590738</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -786,19 +786,19 @@
         <v>54305</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40681</v>
+        <v>41342</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70438</v>
+        <v>69599</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0393133798829923</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02945042381009659</v>
+        <v>0.02992902646191531</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0509923963148197</v>
+        <v>0.05038518135011867</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>679680</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>670174</v>
+        <v>669987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>685902</v>
+        <v>685851</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9807873234154978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9670700411874023</v>
+        <v>0.9668002063967225</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9897660432785976</v>
+        <v>0.9896920605810157</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>654</v>
@@ -836,19 +836,19 @@
         <v>647360</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>634009</v>
+        <v>633723</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>658175</v>
+        <v>658700</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9404503375838628</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9210553463477218</v>
+        <v>0.9206399600040925</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9561613680602835</v>
+        <v>0.9569247038766039</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1323</v>
@@ -857,19 +857,19 @@
         <v>1327040</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1310907</v>
+        <v>1311746</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1340664</v>
+        <v>1340003</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9606866201170077</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9490076036851799</v>
+        <v>0.9496148186498813</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9705495761899033</v>
+        <v>0.9700709735380841</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>23491</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15092</v>
+        <v>14107</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36315</v>
+        <v>36536</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02442392640733282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01569138074800846</v>
+        <v>0.01466693715242377</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03775727959332454</v>
+        <v>0.03798660523175505</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -982,19 +982,19 @@
         <v>53334</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40001</v>
+        <v>40700</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71047</v>
+        <v>71718</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05507478244709624</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04130676340096951</v>
+        <v>0.04202805919476132</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07336576984417541</v>
+        <v>0.07405893535948628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -1003,19 +1003,19 @@
         <v>76825</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59801</v>
+        <v>58872</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>96935</v>
+        <v>95216</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03980170222556637</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03098188166710348</v>
+        <v>0.03050072429994948</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05022059464485847</v>
+        <v>0.04932987769548242</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>938309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>925485</v>
+        <v>925264</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>946708</v>
+        <v>947693</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9755760735926672</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9622427204066754</v>
+        <v>0.9620133947682452</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9843086192519914</v>
+        <v>0.9853330628475765</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>857</v>
@@ -1053,19 +1053,19 @@
         <v>915059</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>897346</v>
+        <v>896675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>928392</v>
+        <v>927693</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9449252175529037</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9266342301558249</v>
+        <v>0.9259410646405132</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9586932365990305</v>
+        <v>0.9579719408052387</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1734</v>
@@ -1074,19 +1074,19 @@
         <v>1853368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1833258</v>
+        <v>1834977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1870392</v>
+        <v>1871321</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9601982977744337</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9497794053551414</v>
+        <v>0.9506701223045175</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9690181183328964</v>
+        <v>0.9694992757000505</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11668</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5286</v>
+        <v>5572</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22252</v>
+        <v>21555</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01719640652110823</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007790845721778359</v>
+        <v>0.008211936069745509</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03279602962267034</v>
+        <v>0.03176839753607071</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1199,19 +1199,19 @@
         <v>36750</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25367</v>
+        <v>26296</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48864</v>
+        <v>49444</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05374124735093246</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03709489883791082</v>
+        <v>0.0384539477931359</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07145496737322921</v>
+        <v>0.07230317824489108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1220,19 +1220,19 @@
         <v>48418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36422</v>
+        <v>35819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65530</v>
+        <v>63563</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03554034362670345</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02673465450865254</v>
+        <v>0.02629211347999666</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04810078389043423</v>
+        <v>0.04665715450732848</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>666841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>656257</v>
+        <v>656954</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>673223</v>
+        <v>672937</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9828035934788918</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.96720397037733</v>
+        <v>0.9682316024639294</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9922091542782218</v>
+        <v>0.9917880639302549</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>659</v>
@@ -1270,19 +1270,19 @@
         <v>647091</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>634977</v>
+        <v>634397</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>658474</v>
+        <v>657545</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9462587526490676</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9285450326267708</v>
+        <v>0.9276968217551089</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9629051011620892</v>
+        <v>0.9615460522068641</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1291</v>
@@ -1291,19 +1291,19 @@
         <v>1313932</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1296820</v>
+        <v>1298787</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1325928</v>
+        <v>1326531</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9644596563732966</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.951899216109566</v>
+        <v>0.9533428454926716</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9732653454913476</v>
+        <v>0.9737078865200034</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>24804</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17025</v>
+        <v>16417</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36461</v>
+        <v>35945</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02632517341531501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01806872944749038</v>
+        <v>0.01742387722116031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03869635571531715</v>
+        <v>0.0381491193519545</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1416,19 +1416,19 @@
         <v>48610</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36785</v>
+        <v>36959</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62997</v>
+        <v>64633</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04680323209229608</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03541750911041857</v>
+        <v>0.03558540707406973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06065517414886199</v>
+        <v>0.06223041621459851</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -1437,19 +1437,19 @@
         <v>73415</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58084</v>
+        <v>59582</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90121</v>
+        <v>89603</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03706244694358687</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02932285619020954</v>
+        <v>0.03007928442938218</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04549652975376376</v>
+        <v>0.04523498858326312</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>917418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>905761</v>
+        <v>906277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>925197</v>
+        <v>925805</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.973674826584685</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9613036442846827</v>
+        <v>0.9618508806480456</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9819312705525096</v>
+        <v>0.9825761227788398</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>949</v>
@@ -1487,19 +1487,19 @@
         <v>990002</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>975615</v>
+        <v>973979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1001827</v>
+        <v>1001653</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9531967679077039</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9393448258511378</v>
+        <v>0.9377695837854012</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9645824908895814</v>
+        <v>0.9644145929259301</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1915</v>
@@ -1508,19 +1508,19 @@
         <v>1907419</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1890713</v>
+        <v>1891231</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1922750</v>
+        <v>1921252</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9629375530564132</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9545034702462362</v>
+        <v>0.9547650114167369</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9706771438097905</v>
+        <v>0.9699207155706179</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>73277</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58554</v>
+        <v>56794</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94586</v>
+        <v>91144</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02237115483049533</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01787624841270709</v>
+        <v>0.0173388800541074</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0288765491678696</v>
+        <v>0.0278258246201784</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>178</v>
@@ -1633,19 +1633,19 @@
         <v>179686</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>156609</v>
+        <v>152963</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>207697</v>
+        <v>204565</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05317416256904241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04634489438971721</v>
+        <v>0.04526609960611089</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06146344848268166</v>
+        <v>0.06053652538851954</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>247</v>
@@ -1654,19 +1654,19 @@
         <v>252963</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>224524</v>
+        <v>225201</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>284559</v>
+        <v>285471</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03801259464494729</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03373898616079787</v>
+        <v>0.03384077625063487</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04276052137304136</v>
+        <v>0.04289754052789286</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3202248</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3180939</v>
+        <v>3184381</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3216971</v>
+        <v>3218731</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9776288451695047</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9711234508321306</v>
+        <v>0.9721741753798209</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9821237515872929</v>
+        <v>0.9826611199458924</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3119</v>
@@ -1704,19 +1704,19 @@
         <v>3199511</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3171500</v>
+        <v>3174632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3222588</v>
+        <v>3226234</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9468258374309576</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9385365515173183</v>
+        <v>0.9394634746114805</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9536551056102824</v>
+        <v>0.9547339003938904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6263</v>
@@ -1725,19 +1725,19 @@
         <v>6401759</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6370163</v>
+        <v>6369251</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6430198</v>
+        <v>6429521</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9619874053550527</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9572394786269589</v>
+        <v>0.9571024594721073</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9662610138392023</v>
+        <v>0.9661592237493654</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>5757</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11590</v>
+        <v>10879</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0082149343523074</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00286544556735657</v>
+        <v>0.002879571149882519</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01653858358835533</v>
+        <v>0.01552466843174356</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -2090,19 +2090,19 @@
         <v>37411</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25782</v>
+        <v>26300</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50533</v>
+        <v>52187</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05403542285888489</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03723926752645594</v>
+        <v>0.03798759496487795</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07298858892189648</v>
+        <v>0.07537766486584796</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -2111,19 +2111,19 @@
         <v>43167</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31133</v>
+        <v>32012</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58170</v>
+        <v>58054</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03098659430941226</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02234826536128318</v>
+        <v>0.02297876384835073</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04175602292752172</v>
+        <v>0.04167225720455778</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>695007</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>689174</v>
+        <v>689885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>698756</v>
+        <v>698746</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9917850656476926</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9834614164116446</v>
+        <v>0.9844753315682566</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9971345544326434</v>
+        <v>0.9971204288501174</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>611</v>
@@ -2161,19 +2161,19 @@
         <v>654926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>641804</v>
+        <v>640150</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>666555</v>
+        <v>666037</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9459645771411151</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9270114110781035</v>
+        <v>0.9246223351341522</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9627607324735441</v>
+        <v>0.9620124050351221</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1276</v>
@@ -2182,19 +2182,19 @@
         <v>1349933</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1334930</v>
+        <v>1335046</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1361967</v>
+        <v>1361088</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9690134056905877</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9582439770724783</v>
+        <v>0.9583277427954418</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9776517346387168</v>
+        <v>0.9770212361516493</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>11691</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6117</v>
+        <v>5612</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20067</v>
+        <v>20611</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01148481513593612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006009254774088368</v>
+        <v>0.005512869234187984</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01971276825775223</v>
+        <v>0.02024737218065199</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -2307,19 +2307,19 @@
         <v>67300</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52600</v>
+        <v>51625</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86115</v>
+        <v>83879</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06548144554879035</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05117875595055525</v>
+        <v>0.05022959757698216</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08378734445974273</v>
+        <v>0.08161256940757222</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -2328,19 +2328,19 @@
         <v>78991</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61955</v>
+        <v>61691</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>98237</v>
+        <v>98832</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03861283831994668</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03028520042236226</v>
+        <v>0.03015601911160824</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04802066969340269</v>
+        <v>0.04831161681094746</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>1006256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>997880</v>
+        <v>997336</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1011830</v>
+        <v>1012335</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9885151848640639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9802872317422475</v>
+        <v>0.9797526278193475</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9939907452259116</v>
+        <v>0.9944871307658117</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>875</v>
@@ -2378,19 +2378,19 @@
         <v>960475</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>941660</v>
+        <v>943896</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>975175</v>
+        <v>976150</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9345185544512097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9162126555402572</v>
+        <v>0.9183874305924278</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9488212440494448</v>
+        <v>0.9497704024230179</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1800</v>
@@ -2399,19 +2399,19 @@
         <v>1966732</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1947486</v>
+        <v>1946891</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1983768</v>
+        <v>1984032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9613871616800533</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9519793303065973</v>
+        <v>0.9516883831890524</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9697147995776376</v>
+        <v>0.9698439808883917</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>12578</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5974</v>
+        <v>5292</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26587</v>
+        <v>25432</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01662573209149952</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007897032800031201</v>
+        <v>0.006995474811312405</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03514287777983813</v>
+        <v>0.03361615649689479</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -2524,19 +2524,19 @@
         <v>47055</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34600</v>
+        <v>35242</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61752</v>
+        <v>63676</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0606160278293274</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04457133120974605</v>
+        <v>0.04539863485351848</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07954887327667633</v>
+        <v>0.0820271418072967</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -2545,19 +2545,19 @@
         <v>59633</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44147</v>
+        <v>45656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78255</v>
+        <v>78681</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0389042181819903</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02880119010432175</v>
+        <v>0.02978572554166896</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05105290482194075</v>
+        <v>0.05133085062383537</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>743960</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>729951</v>
+        <v>731106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>750564</v>
+        <v>751246</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9833742679085005</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9648571222201622</v>
+        <v>0.9663838435031052</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9921029671999689</v>
+        <v>0.9930045251886876</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>661</v>
@@ -2595,19 +2595,19 @@
         <v>729228</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>714531</v>
+        <v>712607</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>741683</v>
+        <v>741041</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9393839721706726</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9204511267233232</v>
+        <v>0.9179728581927029</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.955428668790254</v>
+        <v>0.9546013651464814</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1341</v>
@@ -2616,19 +2616,19 @@
         <v>1473188</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1454566</v>
+        <v>1454140</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1488674</v>
+        <v>1487165</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9610957818180097</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9489470951780588</v>
+        <v>0.9486691493761645</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9711988098956781</v>
+        <v>0.970214274458331</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>15530</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9506</v>
+        <v>8930</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25010</v>
+        <v>25488</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01645227631442498</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0100707348748897</v>
+        <v>0.009460221837196954</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02649545365235727</v>
+        <v>0.02700173612069786</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -2741,19 +2741,19 @@
         <v>61263</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46602</v>
+        <v>47185</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76907</v>
+        <v>77847</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05847436761239209</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04448023530454446</v>
+        <v>0.04503712101248383</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07340594493921275</v>
+        <v>0.07430317960618085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -2762,19 +2762,19 @@
         <v>76793</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60409</v>
+        <v>60022</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95995</v>
+        <v>97518</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03855793912911824</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0303311603938994</v>
+        <v>0.0301371760940449</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04819896980873254</v>
+        <v>0.04896392820816081</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>928409</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>918929</v>
+        <v>918451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>934433</v>
+        <v>935009</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.983547723685575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9735045463476424</v>
+        <v>0.9729982638793023</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9899292651251103</v>
+        <v>0.9905397781628033</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>943</v>
@@ -2812,19 +2812,19 @@
         <v>986435</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>970791</v>
+        <v>969851</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1001096</v>
+        <v>1000513</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9415256323876079</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9265940550607873</v>
+        <v>0.9256968203938182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9555197646954555</v>
+        <v>0.954962878987516</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1835</v>
@@ -2833,19 +2833,19 @@
         <v>1914844</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1895642</v>
+        <v>1894119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1931228</v>
+        <v>1931615</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9614420608708818</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9518010301912675</v>
+        <v>0.9510360717918391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9696688396061008</v>
+        <v>0.9698628239059551</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>45556</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32534</v>
+        <v>31808</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61293</v>
+        <v>61312</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01332351681770602</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009515053600464606</v>
+        <v>0.00930292856154942</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01792620202957717</v>
+        <v>0.01793182119195608</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>195</v>
@@ -2958,19 +2958,19 @@
         <v>213030</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>186812</v>
+        <v>186209</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>246152</v>
+        <v>245560</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06010835181399181</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05271082209420064</v>
+        <v>0.05254052173751511</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06945415756656906</v>
+        <v>0.06928702712434376</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -2979,19 +2979,19 @@
         <v>258585</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>228419</v>
+        <v>225909</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>292461</v>
+        <v>287718</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03713554212317843</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03280342163685292</v>
+        <v>0.0324429455565006</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04200041994124094</v>
+        <v>0.04131932100474935</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3373632</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3357895</v>
+        <v>3357876</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3386654</v>
+        <v>3387380</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.986676483182294</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9820737979704227</v>
+        <v>0.9820681788080442</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9904849463995354</v>
+        <v>0.9906970714384508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3090</v>
@@ -3029,19 +3029,19 @@
         <v>3331064</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3297942</v>
+        <v>3298534</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3357282</v>
+        <v>3357885</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9398916481860082</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.930545842433431</v>
+        <v>0.9307129728756562</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9472891779057994</v>
+        <v>0.9474594782624849</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6252</v>
@@ -3050,19 +3050,19 @@
         <v>6704697</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6670821</v>
+        <v>6675564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6734863</v>
+        <v>6737373</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9628644578768216</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9579995800587591</v>
+        <v>0.9586806789952508</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.967196578363147</v>
+        <v>0.9675570544434995</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>5009</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1790</v>
+        <v>1973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10204</v>
+        <v>11119</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007423160537111425</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002652161405843156</v>
+        <v>0.002923382962259727</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01512088296873536</v>
+        <v>0.01647812528533648</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -3415,19 +3415,19 @@
         <v>34334</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25038</v>
+        <v>23951</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49685</v>
+        <v>47599</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05102803483757099</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0372122996498585</v>
+        <v>0.03559661915313381</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07384417432078283</v>
+        <v>0.0707439793520009</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -3436,19 +3436,19 @@
         <v>39343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27711</v>
+        <v>27969</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52647</v>
+        <v>52904</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02919387211261987</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02056257389179457</v>
+        <v>0.02075417556143417</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03906600753184323</v>
+        <v>0.03925666719283102</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>669791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>664596</v>
+        <v>663681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673010</v>
+        <v>672827</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9925768394628885</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9848791170312647</v>
+        <v>0.9835218747146628</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9973478385941569</v>
+        <v>0.9970766170377402</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>633</v>
@@ -3486,19 +3486,19 @@
         <v>638505</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>623154</v>
+        <v>625240</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>647801</v>
+        <v>648888</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.948971965162429</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9261558256792171</v>
+        <v>0.9292560206479989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9627877003501415</v>
+        <v>0.9644033808468661</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1280</v>
@@ -3507,19 +3507,19 @@
         <v>1308296</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1294992</v>
+        <v>1294735</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1319928</v>
+        <v>1319670</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9708061278873801</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9609339924681566</v>
+        <v>0.9607433328071688</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9794374261082055</v>
+        <v>0.9792458244385657</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>12137</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6730</v>
+        <v>6703</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20714</v>
+        <v>20923</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01187116556912314</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006582379265439484</v>
+        <v>0.006556397061458641</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0202597799700325</v>
+        <v>0.02046432693661722</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3632,19 +3632,19 @@
         <v>32344</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21380</v>
+        <v>22506</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44478</v>
+        <v>46754</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0310132224805858</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02050057197941584</v>
+        <v>0.02158038113035206</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04264814060679573</v>
+        <v>0.04483002726156855</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -3653,19 +3653,19 @@
         <v>44482</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32289</v>
+        <v>32571</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60551</v>
+        <v>61328</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02153710988527854</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01563359961295604</v>
+        <v>0.01577029957390875</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02931784006599248</v>
+        <v>0.02969389369918708</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1010294</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1001717</v>
+        <v>1001508</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1015701</v>
+        <v>1015728</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9881288344308768</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9797402200299672</v>
+        <v>0.979535673063383</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9934176207345605</v>
+        <v>0.9934436029385414</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>947</v>
@@ -3703,19 +3703,19 @@
         <v>1010569</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>998435</v>
+        <v>996159</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1021533</v>
+        <v>1020407</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9689867775194142</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9573518593932043</v>
+        <v>0.9551699727384315</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9794994280205842</v>
+        <v>0.9784196188696479</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1886</v>
@@ -3724,19 +3724,19 @@
         <v>2020862</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2004793</v>
+        <v>2004016</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2033055</v>
+        <v>2032773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9784628901147214</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9706821599340075</v>
+        <v>0.9703061063008128</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9843664003870439</v>
+        <v>0.9842297004260913</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>11694</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6375</v>
+        <v>6190</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20491</v>
+        <v>21905</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01539591643152795</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008392921530919072</v>
+        <v>0.008149214785251529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02697733300717723</v>
+        <v>0.02883872654937531</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3849,19 +3849,19 @@
         <v>30583</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21519</v>
+        <v>20311</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44104</v>
+        <v>42727</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03895889657277688</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0274120820420134</v>
+        <v>0.02587373209901019</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05618313298633781</v>
+        <v>0.05442847377032146</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -3870,19 +3870,19 @@
         <v>42277</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29744</v>
+        <v>31126</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57416</v>
+        <v>57044</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.027371597732941</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01925698020366965</v>
+        <v>0.02015211926505709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03717325249000351</v>
+        <v>0.03693239317981706</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>747858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>739061</v>
+        <v>737647</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753177</v>
+        <v>753362</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9846040835684721</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9730226669928231</v>
+        <v>0.9711612734506249</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.991607078469081</v>
+        <v>0.9918507852147486</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>707</v>
@@ -3920,19 +3920,19 @@
         <v>754428</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>740907</v>
+        <v>742284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>763492</v>
+        <v>764700</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9610411034272232</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9438168670136621</v>
+        <v>0.9455715262296783</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9725879179579866</v>
+        <v>0.9741262679009896</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1392</v>
@@ -3941,19 +3941,19 @@
         <v>1502286</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1487147</v>
+        <v>1487519</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1514819</v>
+        <v>1513437</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.972628402267059</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9628267475099964</v>
+        <v>0.9630676068201829</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9807430197963303</v>
+        <v>0.9798478807349428</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>14503</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8663</v>
+        <v>8802</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23092</v>
+        <v>23804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.015468297292613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009240180580307705</v>
+        <v>0.009387740929396119</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02463011548149331</v>
+        <v>0.02538876611098695</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -4066,19 +4066,19 @@
         <v>49824</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37743</v>
+        <v>36822</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67083</v>
+        <v>66437</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04773427279975855</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03616027737463814</v>
+        <v>0.03527802131963011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06426962884399415</v>
+        <v>0.0636505950962715</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -4087,19 +4087,19 @@
         <v>64327</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49676</v>
+        <v>50324</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80154</v>
+        <v>81502</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03246610981864654</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02507176114236122</v>
+        <v>0.02539892958038866</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04045416857996039</v>
+        <v>0.04113454617050477</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>923064</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>914475</v>
+        <v>913763</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>928904</v>
+        <v>928765</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.984531702707387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9753698845185069</v>
+        <v>0.9746112338890133</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9907598194196923</v>
+        <v>0.9906122590706044</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>914</v>
@@ -4137,19 +4137,19 @@
         <v>993955</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>976696</v>
+        <v>977342</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1006036</v>
+        <v>1006957</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9522657272002415</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9357303711560063</v>
+        <v>0.9363494049037288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.963839722625362</v>
+        <v>0.96472197868037</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1831</v>
@@ -4158,19 +4158,19 @@
         <v>1917019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1901192</v>
+        <v>1899844</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1931670</v>
+        <v>1931022</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9675338901813535</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9595458314200396</v>
+        <v>0.9588654538294951</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9749282388576389</v>
+        <v>0.9746010704196113</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>43343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30639</v>
+        <v>31372</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58631</v>
+        <v>57466</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01276920811419563</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009026479037089185</v>
+        <v>0.009242280838390963</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01727313978615082</v>
+        <v>0.01692991018938545</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>137</v>
@@ -4283,19 +4283,19 @@
         <v>147085</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>124950</v>
+        <v>123820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>173519</v>
+        <v>173737</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04149617599525333</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.035251451864123</v>
+        <v>0.03493270032981925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04895396728801372</v>
+        <v>0.04901533423396617</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>180</v>
@@ -4304,19 +4304,19 @@
         <v>190428</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>166986</v>
+        <v>166041</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>221500</v>
+        <v>220499</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02744358828001646</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0240652401626078</v>
+        <v>0.02392903685933381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03192150359104742</v>
+        <v>0.03177723846703377</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3351007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3335719</v>
+        <v>3336884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3363711</v>
+        <v>3362978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9872307918858044</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9827268602138493</v>
+        <v>0.9830700898106146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9909735209629109</v>
+        <v>0.9907577191616092</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3201</v>
@@ -4354,19 +4354,19 @@
         <v>3397457</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3371023</v>
+        <v>3370805</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3419592</v>
+        <v>3420722</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9585038240047467</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9510460327119862</v>
+        <v>0.9509846657660338</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.964748548135877</v>
+        <v>0.9650672996701807</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6389</v>
@@ -4375,19 +4375,19 @@
         <v>6748464</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6717392</v>
+        <v>6718393</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6771906</v>
+        <v>6772851</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9725564117199835</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9680784964089518</v>
+        <v>0.9682227615329656</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9759347598373921</v>
+        <v>0.976070963140666</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>18845</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12252</v>
+        <v>12187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30464</v>
+        <v>27791</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02730340547783605</v>
+        <v>0.02730340547783606</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0177503005556736</v>
+        <v>0.0176574354936721</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04413664719847746</v>
+        <v>0.0402649146384959</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -4740,19 +4740,19 @@
         <v>31922</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24530</v>
+        <v>25539</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40428</v>
+        <v>41075</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04356273862683676</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03347500324128751</v>
+        <v>0.03485184817084123</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0551705714500452</v>
+        <v>0.05605365568984748</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -4761,19 +4761,19 @@
         <v>50767</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40740</v>
+        <v>40332</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63995</v>
+        <v>62218</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03567626223442729</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02863005980250817</v>
+        <v>0.0283431693840991</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04497233213435026</v>
+        <v>0.04372342522652671</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>671370</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>659751</v>
+        <v>662424</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>677963</v>
+        <v>678028</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9726965945221639</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9558633528015245</v>
+        <v>0.9597350853615041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9822496994443266</v>
+        <v>0.9823425645063278</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1166</v>
@@ -4811,19 +4811,19 @@
         <v>700860</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>692354</v>
+        <v>691707</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>708252</v>
+        <v>707243</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9564372613731633</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9448294285499549</v>
+        <v>0.9439463443101526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9665249967587134</v>
+        <v>0.9651481518291587</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1869</v>
@@ -4832,19 +4832,19 @@
         <v>1372230</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1359002</v>
+        <v>1360779</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1382257</v>
+        <v>1382665</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9643237377655728</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9550276678656497</v>
+        <v>0.9562765747734734</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9713699401974918</v>
+        <v>0.9716568306159009</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>16815</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10529</v>
+        <v>10248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25895</v>
+        <v>26236</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01603082222215629</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01003821666159078</v>
+        <v>0.009769949114937608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02468755681175093</v>
+        <v>0.02501229706268107</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -4957,19 +4957,19 @@
         <v>48289</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38619</v>
+        <v>37801</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60405</v>
+        <v>58877</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0450948187180826</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03606454184058278</v>
+        <v>0.03530060441922839</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05640946722737256</v>
+        <v>0.0549825729652078</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -4978,19 +4978,19 @@
         <v>65104</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53731</v>
+        <v>52105</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79561</v>
+        <v>77722</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03071309929011045</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02534758676283448</v>
+        <v>0.02458064990447431</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03753332290819852</v>
+        <v>0.03666575619947088</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1032102</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1023022</v>
+        <v>1022681</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1038388</v>
+        <v>1038669</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9839691777778438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9753124431882489</v>
+        <v>0.9749877029373188</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9899617833384091</v>
+        <v>0.9902300508850622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1434</v>
@@ -5028,19 +5028,19 @@
         <v>1022549</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1010433</v>
+        <v>1011961</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1032219</v>
+        <v>1033037</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9549051812819175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9435905327726279</v>
+        <v>0.9450174270347922</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9639354581594172</v>
+        <v>0.9646993955807717</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2377</v>
@@ -5049,19 +5049,19 @@
         <v>2054651</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2040194</v>
+        <v>2042033</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2066024</v>
+        <v>2067650</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9692869007098898</v>
+        <v>0.9692869007098895</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9624666770918016</v>
+        <v>0.9633342438005291</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9746524132371657</v>
+        <v>0.9754193500955256</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>21359</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13013</v>
+        <v>12281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33708</v>
+        <v>33078</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0266296726437349</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01622359913899342</v>
+        <v>0.01531141642444508</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04202549913683919</v>
+        <v>0.04124050080139615</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -5174,19 +5174,19 @@
         <v>39098</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29157</v>
+        <v>29235</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51027</v>
+        <v>50296</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04817075002545936</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03592217553731449</v>
+        <v>0.03601877715505031</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06286767537392936</v>
+        <v>0.06196600373556943</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -5195,19 +5195,19 @@
         <v>60458</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46999</v>
+        <v>46046</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76503</v>
+        <v>76420</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03746413091463478</v>
+        <v>0.03746413091463479</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02912435506050859</v>
+        <v>0.02853350908974423</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04740677075491314</v>
+        <v>0.04735541745240601</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>780727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>768378</v>
+        <v>769008</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>789073</v>
+        <v>789805</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9733703273562651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9579745008631607</v>
+        <v>0.9587594991986038</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9837764008610066</v>
+        <v>0.9846885835755551</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>992</v>
@@ -5245,19 +5245,19 @@
         <v>772565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>760636</v>
+        <v>761367</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>782506</v>
+        <v>782428</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9518292499745405</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9371323246260707</v>
+        <v>0.9380339962644304</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9640778244626852</v>
+        <v>0.9639812228449497</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1648</v>
@@ -5266,19 +5266,19 @@
         <v>1553290</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1537245</v>
+        <v>1537328</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1566749</v>
+        <v>1567702</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.962535869085365</v>
+        <v>0.9625358690853651</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9525932292450869</v>
+        <v>0.952644582547594</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9708756449394914</v>
+        <v>0.9714664909102557</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>20021</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13285</v>
+        <v>13234</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30561</v>
+        <v>30735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.020222037731953</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01341872654129221</v>
+        <v>0.01336696328870596</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03086750662913881</v>
+        <v>0.03104302441749015</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>120</v>
@@ -5391,19 +5391,19 @@
         <v>80825</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66836</v>
+        <v>67858</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96978</v>
+        <v>97451</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07235668412690056</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05983346286902624</v>
+        <v>0.06074856252340294</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08681779299761727</v>
+        <v>0.08724105119779556</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -5412,19 +5412,19 @@
         <v>100846</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84345</v>
+        <v>84656</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>119520</v>
+        <v>118985</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04786011643068662</v>
+        <v>0.04786011643068663</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04002913302193486</v>
+        <v>0.04017680229116437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05672249037580848</v>
+        <v>0.05646864192527936</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>970041</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>959501</v>
+        <v>959327</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>976777</v>
+        <v>976828</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.979777962268047</v>
+        <v>0.9797779622680469</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9691324933708614</v>
+        <v>0.9689569755825095</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9865812734587078</v>
+        <v>0.9866330367112941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1439</v>
@@ -5462,19 +5462,19 @@
         <v>1036206</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1020053</v>
+        <v>1019580</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1050195</v>
+        <v>1049173</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9276433158730993</v>
+        <v>0.9276433158730994</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9131822070023827</v>
+        <v>0.9127589488022044</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9401665371309738</v>
+        <v>0.9392514374765972</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2422</v>
@@ -5483,19 +5483,19 @@
         <v>2006247</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1987573</v>
+        <v>1988108</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2022748</v>
+        <v>2022437</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9521398835693132</v>
+        <v>0.9521398835693136</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9432775096241914</v>
+        <v>0.9435313580747205</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9599708669780651</v>
+        <v>0.9598231977088356</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>77041</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61801</v>
+        <v>61458</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97029</v>
+        <v>95935</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02181661457290775</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01750095081419149</v>
+        <v>0.01740374855571909</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02747710060656051</v>
+        <v>0.02716706829890591</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>328</v>
@@ -5608,19 +5608,19 @@
         <v>200134</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>178458</v>
+        <v>178491</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>224117</v>
+        <v>223712</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05362204465236969</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04781439752896498</v>
+        <v>0.04782308958323538</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06004761908896834</v>
+        <v>0.05993935262044658</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>417</v>
@@ -5629,19 +5629,19 @@
         <v>277175</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>250321</v>
+        <v>250642</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>307025</v>
+        <v>306739</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03815946764263832</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0344623917043537</v>
+        <v>0.03450654779983976</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04226908147735559</v>
+        <v>0.04222967312488109</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3454239</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3434251</v>
+        <v>3435345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3469479</v>
+        <v>3469822</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9781833854270924</v>
+        <v>0.9781833854270922</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9725228993934393</v>
+        <v>0.9728329317010939</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9824990491858084</v>
+        <v>0.982596251444281</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5031</v>
@@ -5679,19 +5679,19 @@
         <v>3532179</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3508196</v>
+        <v>3508601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3553855</v>
+        <v>3553822</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9463779553476304</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9399523809110319</v>
+        <v>0.9400606473795535</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9521856024710352</v>
+        <v>0.9521769104167648</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8316</v>
@@ -5700,19 +5700,19 @@
         <v>6986418</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6956568</v>
+        <v>6956854</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7013272</v>
+        <v>7012951</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9618405323573618</v>
+        <v>0.9618405323573616</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9577309185226445</v>
+        <v>0.9577703268751189</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9655376082956465</v>
+        <v>0.9654934522001604</v>
       </c>
     </row>
     <row r="18">
